--- a/metadata/definition/data_model_mapping.xlsx
+++ b/metadata/definition/data_model_mapping.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ssh_dwh\metadata\definition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55AF782-C2C3-4CC9-A250-FF09BC98DA1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB711A7-E428-431B-B4E4-8C16657E3E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="960" windowWidth="28995" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="2235" windowWidth="25290" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_model" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_model!$A$1:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_model!$A$1:$P$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="84">
   <si>
     <t>source_type</t>
   </si>
@@ -87,9 +87,6 @@
     <t>db</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -139,6 +136,156 @@
   </si>
   <si>
     <t>dat_kunde</t>
+  </si>
+  <si>
+    <t>GESENDET</t>
+  </si>
+  <si>
+    <t>NACH_ID</t>
+  </si>
+  <si>
+    <t>NACHRICHT_DATUM</t>
+  </si>
+  <si>
+    <t>MP_ID_SENDER</t>
+  </si>
+  <si>
+    <t>MP_ID_EMPF</t>
+  </si>
+  <si>
+    <t>PRUEFIDENTIFIKATOR</t>
+  </si>
+  <si>
+    <t>KATEGORIE</t>
+  </si>
+  <si>
+    <t>ANTWORT</t>
+  </si>
+  <si>
+    <t>TRANSAKTIONSGRUND</t>
+  </si>
+  <si>
+    <t>dat_nach_k</t>
+  </si>
+  <si>
+    <t>ABN_ID</t>
+  </si>
+  <si>
+    <t>ABR_ID</t>
+  </si>
+  <si>
+    <t>ERFASST_ALT_AM</t>
+  </si>
+  <si>
+    <t>ERFASST_NEU_AM</t>
+  </si>
+  <si>
+    <t>IMPORTIERT_AM</t>
+  </si>
+  <si>
+    <t>MSCONS_ID_ALT</t>
+  </si>
+  <si>
+    <t>MSCONS_ID_NEU</t>
+  </si>
+  <si>
+    <t>PRIMARY_KEY</t>
+  </si>
+  <si>
+    <t>Z_ART</t>
+  </si>
+  <si>
+    <t>Z_HIST_ART</t>
+  </si>
+  <si>
+    <t>Z_HIST_ID</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>GUELTIG_BIS</t>
+  </si>
+  <si>
+    <t>FELD1</t>
+  </si>
+  <si>
+    <t>FELD2</t>
+  </si>
+  <si>
+    <t>DATUM</t>
+  </si>
+  <si>
+    <t>ZEIT</t>
+  </si>
+  <si>
+    <t>AB_DATUM</t>
+  </si>
+  <si>
+    <t>ABR_ART</t>
+  </si>
+  <si>
+    <t>FAELLIG_AM</t>
+  </si>
+  <si>
+    <t>R_NUMMER</t>
+  </si>
+  <si>
+    <t>STORNO_AM</t>
+  </si>
+  <si>
+    <t>STORNOGRUND</t>
+  </si>
+  <si>
+    <t>ZEITRAUM_VON</t>
+  </si>
+  <si>
+    <t>ZEITRAUM_BIS</t>
+  </si>
+  <si>
+    <t>EINGANG_AUSGANG</t>
+  </si>
+  <si>
+    <t>EINGANG_ID</t>
+  </si>
+  <si>
+    <t>ERSTELLDATUM</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>PROZESSSCHRITT</t>
+  </si>
+  <si>
+    <t>KAL_ID</t>
+  </si>
+  <si>
+    <t>KAL_DATUM</t>
+  </si>
+  <si>
+    <t>BEMERKUNG</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>adf</t>
+  </si>
+  <si>
+    <t>dat_zaehler_historie</t>
+  </si>
+  <si>
+    <t>dat_kunden_hist</t>
+  </si>
+  <si>
+    <t>dat_abrechnung</t>
+  </si>
+  <si>
+    <t>dat_k_xml</t>
+  </si>
+  <si>
+    <t>dat_kalendertag</t>
   </si>
 </sst>
 </file>
@@ -659,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -673,6 +820,7 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A753F73-17F7-4387-9A47-809308EFA3A2}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,25 +1218,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1110,25 +1258,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -1152,25 +1300,25 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -1194,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -1236,25 +1384,25 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
@@ -1278,25 +1426,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -1320,25 +1468,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -1362,25 +1510,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -1404,25 +1552,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1444,25 +1592,25 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>1000</v>
@@ -1486,25 +1634,25 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1521,19 +1669,2141 @@
       </c>
       <c r="P12" s="3"/>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="7">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="7">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="7">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="7">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="1">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="7">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1">
+        <v>100</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>100</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="7">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1">
+        <v>100</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="7">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1">
+        <v>100</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="7">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="7">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="7">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="1">
+        <v>100</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="7">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>100</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="7">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1">
+        <v>100</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="7">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="1">
+        <v>100</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1">
+        <v>100</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="1">
+        <v>100</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1">
+        <v>100</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="1">
+        <v>100</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="1">
+        <v>100</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="1">
+        <v>100</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1">
+        <v>100</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1">
+        <v>100</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P7" xr:uid="{5B3B252F-A974-40CC-ADA8-91784F5C347B}"/>
+  <autoFilter ref="A1:P63" xr:uid="{5B3B252F-A974-40CC-ADA8-91784F5C347B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006086A9B44C841140A1FDB37FD6EB521E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ed04bc179f9728cb21a6c4978b3287e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37369a2e-f662-4ee7-90f3-44cf103b6201" xmlns:ns3="98ac16cd-4990-45ba-9424-75be769d8171" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5d272686a9ef3cb23cf55c99003988f" ns2:_="" ns3:_="">
     <xsd:import namespace="37369a2e-f662-4ee7-90f3-44cf103b6201"/>
@@ -1698,7 +3968,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1707,16 +3977,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5632C527-2CA6-46F7-B958-5218FE78511F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48DE8FDC-1295-4CB5-8E2E-D33D38D11BE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1735,10 +4002,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E021BF5-10BC-4EC8-9747-D60B5C660E2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5632C527-2CA6-46F7-B958-5218FE78511F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>